--- a/results_2.xlsx
+++ b/results_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\llm_fin_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F121496A-D21C-43C1-8DE3-D1791A902BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236746B4-4416-4709-BB55-21A12F83D3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="587">
   <si>
     <t>question</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Mã chứng khoán của Vietinbank là gì?</t>
   </si>
   <si>
-    <t>['SELECT "BANK"."symbol" \nFROM "BANK" \nWHERE "BANK"."bankname" = \'Ngân hàng Công thương Việt Nam\' \nLIMIT 1;']</t>
-  </si>
-  <si>
     <t>Có bao nhiêu ngân hàng thương mại cổ phần?</t>
   </si>
   <si>
@@ -910,27 +907,6 @@
     <t>SQL chạy được</t>
   </si>
   <si>
-    <t>Sai vìtrng database cx ko chia rõ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB bank vs MB bị sai </t>
-  </si>
-  <si>
-    <t>Lỗi database</t>
-  </si>
-  <si>
-    <t>Loi database</t>
-  </si>
-  <si>
-    <t>chạy hơi lỗi</t>
-  </si>
-  <si>
-    <t>Lỗidatabase</t>
-  </si>
-  <si>
-    <t>Chạy được nma hơi ảo</t>
-  </si>
-  <si>
     <t>..</t>
   </si>
   <si>
@@ -952,9 +928,6 @@
     <t>Doanh thu được báo cáo là bao nhiêu trong quý 2 năm 2023 của ACB</t>
   </si>
   <si>
-    <t>do dâtbase</t>
-  </si>
-  <si>
     <t>So sánh dòng tiền từ hoạt động kinh doanh với dòng tiền từ hoạt động tín dụng của BID quý 2 2024: ngân hàng có đang sử dụng dòng tiền sinh ra từ hoạt động cốt lõi để mở rộng danh mục tín dụng một cách bền vững không, hay có dấu hiệu phụ thuộc quá mức vào vay nợ?</t>
   </si>
   <si>
@@ -1501,9 +1474,6 @@
     <t>['SELECT "BANK"."symbol"\nFROM "BANK"\nWHERE "BANK"."bankname" = \'Ngân hàng TMCP Công Thương Việt Nam\'\nLIMIT 1;']</t>
   </si>
   <si>
-    <t>Có bao nhiêu report của  Vietnam Investment and Development Commercial Joint Stock Bank?</t>
-  </si>
-  <si>
     <t>['SELECT COUNT(DISTINCT "METADATA"."reportid") AS "report_count"\nFROM "METADATA"\nJOIN "BANK" ON "METADATA"."bankid" = "BANK"."bankid"\nWHERE "BANK"."bankname" = \'Vietnam Investment and Development Commercial Joint Stock Bank\';']</t>
   </si>
   <si>
@@ -1814,6 +1784,18 @@
   </si>
   <si>
     <t>['SELECT \n    "BALANCESHEET"."accountname", \n    "BALANCESHEET"."amount"\nFROM \n    "METADATA"\nJOIN \n    "BANK" ON "METADATA"."bankid" = "BANK"."bankid"\nJOIN \n    "BALANCESHEET" ON "METADATA"."reportid" = "BALANCESHEET"."reportid"\nWHERE \n    "BANK"."abbreviation" = \'BID\' \n    AND "METADATA"."year" = 2024 \n    AND "METADATA"."quarter" = 2 \n    AND "BALANCESHEET"."accountname" = \'Provision for liabilities\'\nLIMIT 1;']</t>
+  </si>
+  <si>
+    <t>['SELECT "BANK"."symbol" \nFROM "BANK" \nWHERE "BANK"."bankname" = \'NH Công thương Việt Nam\' \nLIMIT 1;']</t>
+  </si>
+  <si>
+    <t>['[('VPB)]"]</t>
+  </si>
+  <si>
+    <t>['[('CTG)]"]</t>
+  </si>
+  <si>
+    <t>Có bao nhiêu report NH Việt Nam Thịnh Vượng?</t>
   </si>
 </sst>
 </file>
@@ -1832,6 +1814,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1847,7 +1830,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1857,12 +1840,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,20 +1894,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1938,6 +1910,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2242,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A8" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2252,12 +2225,13 @@
     <col min="2" max="2" width="97.88671875" customWidth="1"/>
     <col min="3" max="3" width="95.5546875" customWidth="1"/>
     <col min="4" max="4" width="113.33203125" customWidth="1"/>
-    <col min="5" max="6" width="1.88671875" customWidth="1"/>
-    <col min="7" max="7" width="2" customWidth="1"/>
-    <col min="8" max="8" width="2.109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
     <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -2282,19 +2256,19 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2318,13 +2292,13 @@
         <v>20.465830087661701</v>
       </c>
       <c r="I2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2350,13 +2324,13 @@
         <v>19.267551898956299</v>
       </c>
       <c r="I3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2382,13 +2356,13 @@
         <v>24.433912992477421</v>
       </c>
       <c r="I4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2414,13 +2388,13 @@
         <v>19.171799421310421</v>
       </c>
       <c r="I5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2446,18 +2420,18 @@
         <v>22.3796546459198</v>
       </c>
       <c r="I6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -2481,13 +2455,13 @@
         <v>22.958305835723881</v>
       </c>
       <c r="I7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2513,13 +2487,13 @@
         <v>21.537256002426151</v>
       </c>
       <c r="I8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2545,13 +2519,13 @@
         <v>17.88109827041626</v>
       </c>
       <c r="I9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2577,13 +2551,13 @@
         <v>21.503757238388062</v>
       </c>
       <c r="I10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2609,20 +2583,20 @@
         <v>21.68893218040466</v>
       </c>
       <c r="I11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B12" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="s">
@@ -2642,7 +2616,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="s">
@@ -2664,14 +2638,14 @@
         <v>21.738943576812741</v>
       </c>
       <c r="I13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
@@ -2693,14 +2667,14 @@
         <v>32.612715244293213</v>
       </c>
       <c r="I14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
@@ -2722,15 +2696,15 @@
         <v>20.106835842132568</v>
       </c>
       <c r="I15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
@@ -2754,17 +2728,17 @@
         <v>23.74324989318848</v>
       </c>
       <c r="I16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C17" t="s">
@@ -2786,24 +2760,24 @@
         <v>24.315106391906738</v>
       </c>
       <c r="I17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>282</v>
-      </c>
-      <c r="B18" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>584</v>
       </c>
       <c r="E18">
         <v>5146</v>
@@ -2818,21 +2792,24 @@
         <v>14.95357871055603</v>
       </c>
       <c r="I18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="K18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>583</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>585</v>
       </c>
       <c r="E19">
         <v>5140</v>
@@ -2847,21 +2824,24 @@
         <v>18.675147294998169</v>
       </c>
       <c r="I19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J19" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="K19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
       </c>
       <c r="E20">
         <v>5127</v>
@@ -2876,24 +2856,21 @@
         <v>14.43907618522644</v>
       </c>
       <c r="I20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J20" t="s">
-        <v>289</v>
-      </c>
-      <c r="L20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
       </c>
       <c r="E21">
         <v>5275</v>
@@ -2908,24 +2885,24 @@
         <v>23.145062685012821</v>
       </c>
       <c r="I21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J21" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="K21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>283</v>
-      </c>
-      <c r="B22" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
@@ -2943,24 +2920,21 @@
         <v>19.857344150543209</v>
       </c>
       <c r="I22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
       </c>
       <c r="E23">
         <v>5196</v>
@@ -2975,24 +2949,24 @@
         <v>19.46201229095459</v>
       </c>
       <c r="I23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
       </c>
       <c r="E24">
         <v>6012</v>
@@ -3007,24 +2981,24 @@
         <v>35.973453044891357</v>
       </c>
       <c r="I24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>72</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
       </c>
       <c r="E25">
         <v>5443</v>
@@ -3039,24 +3013,24 @@
         <v>32.198118686676032</v>
       </c>
       <c r="I25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
       </c>
       <c r="E26">
         <v>6689</v>
@@ -3071,24 +3045,24 @@
         <v>44.384364128112793</v>
       </c>
       <c r="I26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K26" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>78</v>
-      </c>
-      <c r="D27" t="s">
-        <v>79</v>
       </c>
       <c r="E27">
         <v>5713</v>
@@ -3103,24 +3077,24 @@
         <v>25.288513660430912</v>
       </c>
       <c r="I27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>81</v>
-      </c>
-      <c r="D28" t="s">
-        <v>82</v>
       </c>
       <c r="E28">
         <v>5161</v>
@@ -3135,24 +3109,24 @@
         <v>19.171845674514771</v>
       </c>
       <c r="I28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K28" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>84</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
       </c>
       <c r="E29">
         <v>5277</v>
@@ -3167,24 +3141,24 @@
         <v>24.18989205360413</v>
       </c>
       <c r="I29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K29" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>87</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
       </c>
       <c r="E30">
         <v>5734</v>
@@ -3199,27 +3173,24 @@
         <v>28.07971811294556</v>
       </c>
       <c r="I30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K30" t="s">
-        <v>289</v>
-      </c>
-      <c r="L30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>90</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
       </c>
       <c r="E31">
         <v>5639</v>
@@ -3234,24 +3205,24 @@
         <v>29.69581151008606</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>93</v>
-      </c>
-      <c r="D32" t="s">
-        <v>94</v>
       </c>
       <c r="E32">
         <v>5262</v>
@@ -3266,21 +3237,21 @@
         <v>27.33414888381958</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K32" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
         <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
@@ -3298,21 +3269,21 @@
         <v>23.606675624847409</v>
       </c>
       <c r="I33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J33" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
         <v>97</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>98</v>
-      </c>
-      <c r="D34" t="s">
-        <v>99</v>
       </c>
       <c r="E34">
         <v>5605</v>
@@ -3327,24 +3298,24 @@
         <v>31.295998811721802</v>
       </c>
       <c r="I34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
         <v>100</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>101</v>
-      </c>
-      <c r="D35" t="s">
-        <v>102</v>
       </c>
       <c r="E35">
         <v>5248</v>
@@ -3359,24 +3330,24 @@
         <v>21.560732841491699</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K35" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
         <v>103</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>104</v>
-      </c>
-      <c r="D36" t="s">
-        <v>105</v>
       </c>
       <c r="E36">
         <v>5317</v>
@@ -3391,24 +3362,24 @@
         <v>29.444134950637821</v>
       </c>
       <c r="I36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
         <v>106</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>107</v>
-      </c>
-      <c r="D37" t="s">
-        <v>108</v>
       </c>
       <c r="E37">
         <v>5507</v>
@@ -3423,27 +3394,24 @@
         <v>27.648682355880741</v>
       </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K37" t="s">
-        <v>289</v>
-      </c>
-      <c r="L37" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
         <v>109</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>110</v>
-      </c>
-      <c r="D38" t="s">
-        <v>111</v>
       </c>
       <c r="E38">
         <v>5445</v>
@@ -3458,27 +3426,24 @@
         <v>25.91189527511597</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s">
-        <v>289</v>
-      </c>
-      <c r="L38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" t="s">
-        <v>302</v>
-      </c>
       <c r="D39" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E39">
         <v>5339</v>
@@ -3493,24 +3458,24 @@
         <v>24.639758586883541</v>
       </c>
       <c r="I39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K39" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
         <v>113</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>114</v>
-      </c>
-      <c r="D40" t="s">
-        <v>115</v>
       </c>
       <c r="E40">
         <v>5536</v>
@@ -3525,27 +3490,24 @@
         <v>43.070606708526611</v>
       </c>
       <c r="I40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K40" t="s">
-        <v>289</v>
-      </c>
-      <c r="L40" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
         <v>116</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>117</v>
-      </c>
-      <c r="D41" t="s">
-        <v>118</v>
       </c>
       <c r="E41">
         <v>5718</v>
@@ -3560,24 +3522,24 @@
         <v>39.131380081176758</v>
       </c>
       <c r="I41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K41" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
@@ -3595,27 +3557,24 @@
         <v>24.07691764831543</v>
       </c>
       <c r="I42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K42" t="s">
-        <v>289</v>
-      </c>
-      <c r="L42" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
         <v>121</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>122</v>
-      </c>
-      <c r="D43" t="s">
-        <v>123</v>
       </c>
       <c r="E43">
         <v>5254</v>
@@ -3630,24 +3589,24 @@
         <v>24.320085763931271</v>
       </c>
       <c r="I43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K43" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" t="s">
         <v>124</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>125</v>
-      </c>
-      <c r="D44" t="s">
-        <v>126</v>
       </c>
       <c r="E44">
         <v>5884</v>
@@ -3662,27 +3621,24 @@
         <v>30.33698749542236</v>
       </c>
       <c r="I44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K44" t="s">
-        <v>289</v>
-      </c>
-      <c r="L44" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
         <v>127</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>128</v>
-      </c>
-      <c r="D45" t="s">
-        <v>129</v>
       </c>
       <c r="E45">
         <v>5665</v>
@@ -3697,27 +3653,24 @@
         <v>31.926063060760502</v>
       </c>
       <c r="I45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K45" t="s">
-        <v>289</v>
-      </c>
-      <c r="L45" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
         <v>130</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>131</v>
-      </c>
-      <c r="D46" t="s">
-        <v>132</v>
       </c>
       <c r="E46">
         <v>5293</v>
@@ -3732,27 +3685,24 @@
         <v>22.40565299987793</v>
       </c>
       <c r="I46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K46" t="s">
-        <v>289</v>
-      </c>
-      <c r="L46" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
         <v>133</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>134</v>
-      </c>
-      <c r="D47" t="s">
-        <v>135</v>
       </c>
       <c r="E47">
         <v>5402</v>
@@ -3767,24 +3717,24 @@
         <v>31.096836566925049</v>
       </c>
       <c r="I47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K47" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
         <v>136</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>137</v>
-      </c>
-      <c r="D48" t="s">
-        <v>138</v>
       </c>
       <c r="E48">
         <v>5635</v>
@@ -3799,21 +3749,21 @@
         <v>29.75830340385437</v>
       </c>
       <c r="I48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" t="s">
         <v>139</v>
-      </c>
-      <c r="C49" t="s">
-        <v>140</v>
       </c>
       <c r="D49" t="s">
         <v>41</v>
@@ -3831,24 +3781,24 @@
         <v>21.015903949737549</v>
       </c>
       <c r="I49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" t="s">
         <v>141</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>142</v>
-      </c>
-      <c r="D50" t="s">
-        <v>143</v>
       </c>
       <c r="E50">
         <v>5403</v>
@@ -3863,21 +3813,21 @@
         <v>30.336075305938721</v>
       </c>
       <c r="I50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" t="s">
         <v>144</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>145</v>
-      </c>
-      <c r="D51" t="s">
-        <v>146</v>
       </c>
       <c r="E51">
         <v>5610</v>
@@ -3892,16 +3842,16 @@
         <v>24.81888389587402</v>
       </c>
       <c r="I51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="4" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" t="s">
         <v>147</v>
-      </c>
-      <c r="C52" t="s">
-        <v>148</v>
       </c>
       <c r="D52" t="s">
         <v>41</v>
@@ -3919,21 +3869,21 @@
         <v>22.659767389297489</v>
       </c>
       <c r="I52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" t="s">
         <v>149</v>
-      </c>
-      <c r="C53" t="s">
-        <v>150</v>
       </c>
       <c r="D53" t="s">
         <v>44</v>
@@ -3951,24 +3901,24 @@
         <v>29.52931189537048</v>
       </c>
       <c r="I53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" t="s">
         <v>151</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>152</v>
-      </c>
-      <c r="D54" t="s">
-        <v>153</v>
       </c>
       <c r="E54">
         <v>5668</v>
@@ -3983,24 +3933,24 @@
         <v>27.47720193862915</v>
       </c>
       <c r="I54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
         <v>154</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>155</v>
-      </c>
-      <c r="D55" t="s">
-        <v>156</v>
       </c>
       <c r="E55">
         <v>5238</v>
@@ -4015,21 +3965,21 @@
         <v>24.858240365982059</v>
       </c>
       <c r="I55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" t="s">
         <v>157</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>158</v>
-      </c>
-      <c r="D56" t="s">
-        <v>159</v>
       </c>
       <c r="E56">
         <v>5500</v>
@@ -4044,25 +3994,25 @@
         <v>28.326607227325439</v>
       </c>
       <c r="I56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-      <c r="B57" s="8" t="s">
+      <c r="A57" s="2"/>
+      <c r="B57" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" t="s">
         <v>160</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>161</v>
-      </c>
-      <c r="D57" t="s">
-        <v>162</v>
       </c>
       <c r="E57">
         <v>5611</v>
@@ -4077,21 +4027,21 @@
         <v>32.337092399597168</v>
       </c>
       <c r="I57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" t="s">
         <v>163</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>164</v>
-      </c>
-      <c r="D58" t="s">
-        <v>165</v>
       </c>
       <c r="E58">
         <v>5274</v>
@@ -4106,24 +4056,24 @@
         <v>23.274343729019169</v>
       </c>
       <c r="I58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" t="s">
         <v>166</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>167</v>
-      </c>
-      <c r="D59" t="s">
-        <v>168</v>
       </c>
       <c r="E59">
         <v>5371</v>
@@ -4138,24 +4088,24 @@
         <v>27.49154901504517</v>
       </c>
       <c r="I59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="4" t="s">
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" t="s">
         <v>169</v>
       </c>
-      <c r="C60" t="s">
-        <v>170</v>
-      </c>
       <c r="D60" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="E60">
         <v>5658</v>
@@ -4170,24 +4120,24 @@
         <v>30.604814052581791</v>
       </c>
       <c r="I60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" t="s">
         <v>171</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>172</v>
-      </c>
-      <c r="D61" t="s">
-        <v>173</v>
       </c>
       <c r="E61">
         <v>5730</v>
@@ -4202,24 +4152,24 @@
         <v>27.15936636924744</v>
       </c>
       <c r="I61" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J61" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>285</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>308</v>
+        <v>284</v>
+      </c>
+      <c r="B62" t="s">
+        <v>299</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E62">
         <v>5320</v>
@@ -4234,21 +4184,21 @@
         <v>24.642247676849369</v>
       </c>
       <c r="I62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" t="s">
         <v>176</v>
-      </c>
-      <c r="C63" t="s">
-        <v>177</v>
       </c>
       <c r="D63" t="s">
         <v>52</v>
@@ -4266,24 +4216,24 @@
         <v>29.04204154014587</v>
       </c>
       <c r="I63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" t="s">
         <v>178</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>179</v>
-      </c>
-      <c r="D64" t="s">
-        <v>180</v>
       </c>
       <c r="E64">
         <v>5787</v>
@@ -4298,24 +4248,24 @@
         <v>30.808127880096439</v>
       </c>
       <c r="I64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D65" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E65">
         <v>5673</v>
@@ -4330,21 +4280,21 @@
         <v>27.360941410064701</v>
       </c>
       <c r="I65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="4" t="s">
+      <c r="B66" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" t="s">
         <v>182</v>
-      </c>
-      <c r="C66" t="s">
-        <v>183</v>
       </c>
       <c r="D66" t="s">
         <v>44</v>
@@ -4362,24 +4312,24 @@
         <v>33.83467435836792</v>
       </c>
       <c r="I66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" t="s">
         <v>184</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>185</v>
-      </c>
-      <c r="D67" t="s">
-        <v>186</v>
       </c>
       <c r="E67">
         <v>5417</v>
@@ -4394,24 +4344,24 @@
         <v>27.893130540847778</v>
       </c>
       <c r="I67" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J67" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K67" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" t="s">
         <v>187</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>188</v>
-      </c>
-      <c r="D68" t="s">
-        <v>189</v>
       </c>
       <c r="E68">
         <v>5719</v>
@@ -4426,24 +4376,24 @@
         <v>33.294686079025269</v>
       </c>
       <c r="I68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="4" t="s">
+      <c r="B69" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" t="s">
         <v>190</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>191</v>
-      </c>
-      <c r="D69" t="s">
-        <v>192</v>
       </c>
       <c r="E69">
         <v>5494</v>
@@ -4458,24 +4408,24 @@
         <v>26.22249865531921</v>
       </c>
       <c r="I69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" t="s">
         <v>193</v>
       </c>
-      <c r="C70" t="s">
-        <v>194</v>
-      </c>
       <c r="D70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E70">
         <v>5654</v>
@@ -4490,18 +4440,18 @@
         <v>29.04804444313049</v>
       </c>
       <c r="I70" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J70" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" t="s">
         <v>195</v>
-      </c>
-      <c r="C71" t="s">
-        <v>196</v>
       </c>
       <c r="D71" t="s">
         <v>52</v>
@@ -4519,21 +4469,21 @@
         <v>27.929706573486332</v>
       </c>
       <c r="I71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="4" t="s">
+      <c r="B72" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" t="s">
         <v>197</v>
       </c>
-      <c r="C72" t="s">
-        <v>198</v>
-      </c>
       <c r="D72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E72">
         <v>5600</v>
@@ -4548,24 +4498,24 @@
         <v>27.59277701377869</v>
       </c>
       <c r="I72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" t="s">
         <v>199</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>200</v>
-      </c>
-      <c r="D73" t="s">
-        <v>201</v>
       </c>
       <c r="E73">
         <v>5590</v>
@@ -4580,22 +4530,22 @@
         <v>30.510480165481571</v>
       </c>
       <c r="I73" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J73" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K73" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="8" t="s">
+      <c r="A74" s="3"/>
+      <c r="B74" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" t="s">
         <v>202</v>
-      </c>
-      <c r="C74" t="s">
-        <v>203</v>
       </c>
       <c r="D74" t="s">
         <v>52</v>
@@ -4613,21 +4563,21 @@
         <v>26.546046733856201</v>
       </c>
       <c r="I74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" t="s">
         <v>204</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>205</v>
-      </c>
-      <c r="D75" t="s">
-        <v>206</v>
       </c>
       <c r="E75">
         <v>5858</v>
@@ -4642,24 +4592,24 @@
         <v>37.963725090026863</v>
       </c>
       <c r="I75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="8" t="s">
-        <v>306</v>
+      <c r="B76" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E76">
         <v>5612</v>
@@ -4674,21 +4624,21 @@
         <v>30.658762454986569</v>
       </c>
       <c r="I76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="4" t="s">
+      <c r="B77" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" t="s">
         <v>209</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>210</v>
-      </c>
-      <c r="D77" t="s">
-        <v>211</v>
       </c>
       <c r="E77">
         <v>5585</v>
@@ -4703,24 +4653,24 @@
         <v>29.14344310760498</v>
       </c>
       <c r="I77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" t="s">
         <v>212</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>213</v>
-      </c>
-      <c r="D78" t="s">
-        <v>214</v>
       </c>
       <c r="E78">
         <v>5660</v>
@@ -4735,24 +4685,24 @@
         <v>26.763539552688599</v>
       </c>
       <c r="I78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" t="s">
         <v>215</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>216</v>
-      </c>
-      <c r="D79" t="s">
-        <v>217</v>
       </c>
       <c r="E79">
         <v>6109</v>
@@ -4767,21 +4717,21 @@
         <v>35.831529855728149</v>
       </c>
       <c r="I79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" t="s">
         <v>218</v>
-      </c>
-      <c r="C80" t="s">
-        <v>219</v>
       </c>
       <c r="D80" t="s">
         <v>41</v>
@@ -4799,22 +4749,22 @@
         <v>21.968966484069821</v>
       </c>
       <c r="I80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="3"/>
+      <c r="B81" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" t="s">
         <v>220</v>
       </c>
-      <c r="C81" t="s">
-        <v>221</v>
-      </c>
       <c r="D81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E81">
         <v>5607</v>
@@ -4829,21 +4779,21 @@
         <v>31.631467580795292</v>
       </c>
       <c r="I81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B82" s="4" t="s">
+      <c r="B82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" t="s">
         <v>222</v>
       </c>
-      <c r="C82" t="s">
-        <v>223</v>
-      </c>
       <c r="D82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E82">
         <v>5651</v>
@@ -4858,27 +4808,24 @@
         <v>32.377400636672967</v>
       </c>
       <c r="I82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J82" t="s">
-        <v>289</v>
-      </c>
-      <c r="L82" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B83" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" t="s">
         <v>224</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>225</v>
-      </c>
-      <c r="D83" t="s">
-        <v>226</v>
       </c>
       <c r="E83">
         <v>5487</v>
@@ -4893,24 +4840,24 @@
         <v>30.97689414024353</v>
       </c>
       <c r="I83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" t="s">
         <v>227</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>228</v>
-      </c>
-      <c r="D84" t="s">
-        <v>229</v>
       </c>
       <c r="E84">
         <v>5532</v>
@@ -4925,24 +4872,24 @@
         <v>29.513791561126709</v>
       </c>
       <c r="I84" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J84" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K84" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" t="s">
         <v>230</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>231</v>
-      </c>
-      <c r="D85" t="s">
-        <v>232</v>
       </c>
       <c r="E85">
         <v>5936</v>
@@ -4957,25 +4904,25 @@
         <v>37.398546934127808</v>
       </c>
       <c r="I85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="8" t="s">
+      <c r="A86" s="2"/>
+      <c r="B86" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" t="s">
         <v>233</v>
       </c>
-      <c r="C86" t="s">
-        <v>234</v>
-      </c>
       <c r="D86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E86">
         <v>6147</v>
@@ -4990,21 +4937,21 @@
         <v>34.54088020324707</v>
       </c>
       <c r="I86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" t="s">
         <v>235</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>236</v>
-      </c>
-      <c r="D87" t="s">
-        <v>237</v>
       </c>
       <c r="E87">
         <v>6248</v>
@@ -5019,18 +4966,18 @@
         <v>40.400837898254387</v>
       </c>
       <c r="I87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88" t="s">
         <v>238</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>239</v>
-      </c>
-      <c r="D88" t="s">
-        <v>240</v>
       </c>
       <c r="E88">
         <v>6196</v>
@@ -5045,21 +4992,21 @@
         <v>38.378796815872192</v>
       </c>
       <c r="I88" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J88" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" t="s">
         <v>241</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>242</v>
-      </c>
-      <c r="D89" t="s">
-        <v>243</v>
       </c>
       <c r="E89">
         <v>5772</v>
@@ -5074,24 +5021,24 @@
         <v>33.136224269866943</v>
       </c>
       <c r="I89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" t="s">
         <v>244</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>245</v>
-      </c>
-      <c r="D90" t="s">
-        <v>246</v>
       </c>
       <c r="E90">
         <v>6322</v>
@@ -5106,21 +5053,21 @@
         <v>40.268749713897712</v>
       </c>
       <c r="I90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" t="s">
         <v>247</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>248</v>
-      </c>
-      <c r="D91" t="s">
-        <v>249</v>
       </c>
       <c r="E91">
         <v>5841</v>
@@ -5135,24 +5082,24 @@
         <v>34.313231706619263</v>
       </c>
       <c r="I91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" t="s">
         <v>250</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>251</v>
-      </c>
-      <c r="D92" t="s">
-        <v>252</v>
       </c>
       <c r="E92">
         <v>7061</v>
@@ -5167,24 +5114,24 @@
         <v>48.88592791557312</v>
       </c>
       <c r="I92" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J92" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K92" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C93" t="s">
         <v>253</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>254</v>
-      </c>
-      <c r="D93" t="s">
-        <v>255</v>
       </c>
       <c r="E93">
         <v>5344</v>
@@ -5199,27 +5146,27 @@
         <v>30.011384248733521</v>
       </c>
       <c r="I93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L93" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" t="s">
         <v>256</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>257</v>
-      </c>
-      <c r="D94" t="s">
-        <v>258</v>
       </c>
       <c r="E94">
         <v>5506</v>
@@ -5234,18 +5181,18 @@
         <v>28.314946174621578</v>
       </c>
       <c r="I94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" t="s">
         <v>259</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>260</v>
-      </c>
-      <c r="D95" t="s">
-        <v>261</v>
       </c>
       <c r="E95">
         <v>5927</v>
@@ -5260,21 +5207,21 @@
         <v>34.058934926986687</v>
       </c>
       <c r="I95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" t="s">
         <v>262</v>
-      </c>
-      <c r="C96" t="s">
-        <v>263</v>
       </c>
       <c r="D96" t="s">
         <v>44</v>
@@ -5292,21 +5239,21 @@
         <v>34.861058950424187</v>
       </c>
       <c r="I96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" t="s">
         <v>264</v>
-      </c>
-      <c r="C97" t="s">
-        <v>265</v>
       </c>
       <c r="D97" t="s">
         <v>44</v>
@@ -5324,24 +5271,24 @@
         <v>31.758649587631229</v>
       </c>
       <c r="I97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
+        <v>265</v>
+      </c>
+      <c r="C98" t="s">
         <v>266</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>267</v>
-      </c>
-      <c r="D98" t="s">
-        <v>268</v>
       </c>
       <c r="E98">
         <v>5609</v>
@@ -5356,24 +5303,24 @@
         <v>43.534936428070068</v>
       </c>
       <c r="I98" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J98" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K98" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
+        <v>268</v>
+      </c>
+      <c r="C99" t="s">
         <v>269</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>270</v>
-      </c>
-      <c r="D99" t="s">
-        <v>271</v>
       </c>
       <c r="E99">
         <v>6140</v>
@@ -5388,24 +5335,24 @@
         <v>34.995197057723999</v>
       </c>
       <c r="I99" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J99" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K99" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
+        <v>271</v>
+      </c>
+      <c r="C100" t="s">
         <v>272</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>273</v>
-      </c>
-      <c r="D100" t="s">
-        <v>274</v>
       </c>
       <c r="E100">
         <v>5881</v>
@@ -5420,24 +5367,24 @@
         <v>35.24282431602478</v>
       </c>
       <c r="I100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
+        <v>274</v>
+      </c>
+      <c r="C101" t="s">
         <v>275</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>276</v>
-      </c>
-      <c r="D101" t="s">
-        <v>277</v>
       </c>
       <c r="E101">
         <v>5788</v>
@@ -5452,13 +5399,13 @@
         <v>36.133642435073853</v>
       </c>
       <c r="I101" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J101" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K101" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
@@ -5468,14 +5415,11 @@
       </c>
       <c r="K102">
         <f>COUNTIF(K2:K101,"x")/100</f>
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K101 L26">
-    <cfRule type="containsBlanks" priority="2">
-      <formula>LEN(TRIM(K2))=0</formula>
-    </cfRule>
     <cfRule type="containsBlanks" priority="1">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
@@ -5489,8 +5433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AA731F-7B6E-409A-8086-5D1273BD0AC7}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5505,32 +5449,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>311</v>
+      <c r="H1" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -5538,10 +5482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D2">
         <v>95</v>
@@ -5556,10 +5500,10 @@
         <v>14.85982251167297</v>
       </c>
       <c r="H2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -5567,10 +5511,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D3">
         <v>105</v>
@@ -5585,10 +5529,10 @@
         <v>14.788923025131229</v>
       </c>
       <c r="H3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -5596,10 +5540,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D4">
         <v>110</v>
@@ -5619,10 +5563,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D5">
         <v>78</v>
@@ -5642,7 +5586,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -5660,10 +5604,10 @@
         <v>16.106630563735958</v>
       </c>
       <c r="H6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -5671,7 +5615,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -5689,10 +5633,10 @@
         <v>15.08930826187134</v>
       </c>
       <c r="H7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -5700,10 +5644,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D8">
         <v>99</v>
@@ -5718,10 +5662,10 @@
         <v>14.25775456428528</v>
       </c>
       <c r="H8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -5729,10 +5673,10 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D9">
         <v>118</v>
@@ -5747,10 +5691,10 @@
         <v>14.636643171310419</v>
       </c>
       <c r="H9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -5758,7 +5702,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -5776,10 +5720,10 @@
         <v>14.74093055725098</v>
       </c>
       <c r="H10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -5787,7 +5731,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -5805,7 +5749,7 @@
         <v>14.49496626853943</v>
       </c>
       <c r="I11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -5813,7 +5757,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
@@ -5831,7 +5775,7 @@
         <v>15.667973279952999</v>
       </c>
       <c r="I12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -5839,7 +5783,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -5857,7 +5801,7 @@
         <v>14.920302867889401</v>
       </c>
       <c r="I13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -5865,7 +5809,7 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -5883,7 +5827,7 @@
         <v>14.995864152908331</v>
       </c>
       <c r="I14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -5891,7 +5835,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -5909,7 +5853,7 @@
         <v>14.92894840240479</v>
       </c>
       <c r="I15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -5937,7 +5881,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -5955,7 +5899,7 @@
         <v>15.164525747299191</v>
       </c>
       <c r="I17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -5963,7 +5907,7 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -5981,7 +5925,7 @@
         <v>14.822631120681759</v>
       </c>
       <c r="I18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -5989,7 +5933,7 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -6007,18 +5951,18 @@
         <v>16.074968576431271</v>
       </c>
       <c r="I19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20">
         <v>85</v>
@@ -6033,18 +5977,18 @@
         <v>14.54626822471619</v>
       </c>
       <c r="I20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C21" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D21">
         <v>106</v>
@@ -6059,18 +6003,18 @@
         <v>14.43908429145813</v>
       </c>
       <c r="I21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C22" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D22">
         <v>139</v>
@@ -6084,19 +6028,19 @@
       <c r="G22">
         <v>14.973025321960449</v>
       </c>
-      <c r="I22" s="11" t="s">
-        <v>289</v>
+      <c r="I22" s="8" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C23" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D23">
         <v>119</v>
@@ -6111,21 +6055,21 @@
         <v>15.189235687255859</v>
       </c>
       <c r="H23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C24" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D24">
         <v>118</v>
@@ -6140,15 +6084,15 @@
         <v>15.23999714851379</v>
       </c>
       <c r="I24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -6168,10 +6112,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -6189,18 +6133,18 @@
         <v>15.2733371257782</v>
       </c>
       <c r="I26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C27" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D27">
         <v>183</v>
@@ -6217,13 +6161,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C28" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D28">
         <v>90</v>
@@ -6238,18 +6182,18 @@
         <v>14.7553768157959</v>
       </c>
       <c r="I28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C29" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D29">
         <v>144</v>
@@ -6264,18 +6208,18 @@
         <v>15.504293441772459</v>
       </c>
       <c r="I29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C30" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D30">
         <v>110</v>
@@ -6290,15 +6234,15 @@
         <v>16.612375974655151</v>
       </c>
       <c r="I30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -6316,21 +6260,21 @@
         <v>16.23945331573486</v>
       </c>
       <c r="H31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C32" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D32">
         <v>178</v>
@@ -6345,18 +6289,18 @@
         <v>15.340942621231081</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C33" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D33">
         <v>127</v>
@@ -6371,18 +6315,18 @@
         <v>14.46438431739807</v>
       </c>
       <c r="I33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C34" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D34">
         <v>157</v>
@@ -6399,10 +6343,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
@@ -6420,18 +6364,18 @@
         <v>15.122383117675779</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C36" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D36">
         <v>264</v>
@@ -6448,13 +6392,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C37" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D37">
         <v>261</v>
@@ -6469,18 +6413,18 @@
         <v>15.92561507225037</v>
       </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C38" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D38">
         <v>200</v>
@@ -6495,15 +6439,15 @@
         <v>15.41339802742004</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
@@ -6521,18 +6465,18 @@
         <v>15.43244338035583</v>
       </c>
       <c r="I39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C40" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D40">
         <v>121</v>
@@ -6549,13 +6493,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C41" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D41">
         <v>173</v>
@@ -6570,21 +6514,21 @@
         <v>15.3729248046875</v>
       </c>
       <c r="H41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C42" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D42">
         <v>138</v>
@@ -6601,13 +6545,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C43" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D43">
         <v>181</v>
@@ -6622,15 +6566,15 @@
         <v>15.506287336349491</v>
       </c>
       <c r="I43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C44" t="s">
         <v>41</v>
@@ -6648,15 +6592,15 @@
         <v>15.357876300811769</v>
       </c>
       <c r="I44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C45" t="s">
         <v>41</v>
@@ -6674,18 +6618,18 @@
         <v>17.025949954986569</v>
       </c>
       <c r="I45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C46" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D46">
         <v>169</v>
@@ -6700,18 +6644,18 @@
         <v>15.48590874671936</v>
       </c>
       <c r="H46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C47" t="s">
         <v>41</v>
@@ -6729,15 +6673,15 @@
         <v>14.83952212333679</v>
       </c>
       <c r="I47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C48" t="s">
         <v>41</v>
@@ -6755,15 +6699,15 @@
         <v>15.158760070800779</v>
       </c>
       <c r="I48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C49" t="s">
         <v>41</v>
@@ -6781,18 +6725,18 @@
         <v>15.435929775238041</v>
       </c>
       <c r="I49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C50" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D50">
         <v>140</v>
@@ -6807,18 +6751,18 @@
         <v>14.691709995269781</v>
       </c>
       <c r="H50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C51" t="s">
         <v>41</v>
@@ -6836,18 +6780,18 @@
         <v>16.142013072967529</v>
       </c>
       <c r="I51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C52" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D52">
         <v>161</v>
@@ -6862,18 +6806,18 @@
         <v>15.38950777053833</v>
       </c>
       <c r="H52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C53" t="s">
         <v>41</v>
@@ -6891,15 +6835,15 @@
         <v>15.18729662895203</v>
       </c>
       <c r="I53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C54" t="s">
         <v>41</v>
@@ -6917,15 +6861,15 @@
         <v>15.0765814781189</v>
       </c>
       <c r="I54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C55" t="s">
         <v>41</v>
@@ -6943,15 +6887,15 @@
         <v>15.67004036903381</v>
       </c>
       <c r="I55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C56" t="s">
         <v>41</v>
@@ -6969,15 +6913,15 @@
         <v>16.207567453384399</v>
       </c>
       <c r="I56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C57" t="s">
         <v>41</v>
@@ -6995,18 +6939,18 @@
         <v>15.17525577545166</v>
       </c>
       <c r="I57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C58" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D58">
         <v>153</v>
@@ -7021,18 +6965,18 @@
         <v>17.087543487548832</v>
       </c>
       <c r="H58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C59" t="s">
         <v>41</v>
@@ -7052,13 +6996,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C60" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D60">
         <v>213</v>
@@ -7075,13 +7019,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B61" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C61" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D61">
         <v>199</v>
@@ -7096,15 +7040,15 @@
         <v>18.029759168624881</v>
       </c>
       <c r="I61" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C62" t="s">
         <v>41</v>
@@ -7122,18 +7066,18 @@
         <v>15.421190023422239</v>
       </c>
       <c r="I62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C63" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D63">
         <v>119</v>
@@ -7148,18 +7092,18 @@
         <v>14.340173959732059</v>
       </c>
       <c r="H63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C64" t="s">
         <v>41</v>
@@ -7177,18 +7121,18 @@
         <v>18.00339579582214</v>
       </c>
       <c r="I64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C65" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D65">
         <v>156</v>
@@ -7203,18 +7147,18 @@
         <v>14.623471736907961</v>
       </c>
       <c r="H65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B66" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C66" t="s">
         <v>41</v>
@@ -7232,18 +7176,18 @@
         <v>15.738283157348629</v>
       </c>
       <c r="I66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B67" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C67" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D67">
         <v>146</v>
@@ -7260,13 +7204,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B68" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C68" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D68">
         <v>141</v>
@@ -7281,18 +7225,18 @@
         <v>15.407088279724119</v>
       </c>
       <c r="I68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B69" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C69" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D69">
         <v>240</v>
@@ -7309,13 +7253,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C70" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D70">
         <v>386</v>
@@ -7332,10 +7276,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C71" t="s">
         <v>41</v>
@@ -7353,18 +7297,18 @@
         <v>15.339318037033079</v>
       </c>
       <c r="I71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B72" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C72" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D72">
         <v>275</v>
@@ -7381,13 +7325,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C73" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D73">
         <v>272</v>
@@ -7402,15 +7346,15 @@
         <v>16.114303112030029</v>
       </c>
       <c r="I73" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B74" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C74" t="s">
         <v>41</v>
@@ -7428,15 +7372,15 @@
         <v>16.65728068351746</v>
       </c>
       <c r="I74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B75" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C75" t="s">
         <v>41</v>
@@ -7454,15 +7398,15 @@
         <v>15.072757244110109</v>
       </c>
       <c r="I75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B76" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C76" t="s">
         <v>41</v>
@@ -7480,15 +7424,15 @@
         <v>17.227344036102291</v>
       </c>
       <c r="I76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B77" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C77" t="s">
         <v>41</v>
@@ -7506,18 +7450,18 @@
         <v>16.636683702468869</v>
       </c>
       <c r="I77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B78" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C78" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D78">
         <v>247</v>
@@ -7532,18 +7476,18 @@
         <v>17.887794971466061</v>
       </c>
       <c r="H78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B79" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C79" t="s">
         <v>41</v>
@@ -7561,15 +7505,15 @@
         <v>17.207956314086911</v>
       </c>
       <c r="I79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B80" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C80" t="s">
         <v>41</v>
@@ -7587,15 +7531,15 @@
         <v>16.48816180229187</v>
       </c>
       <c r="I80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B81" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C81" t="s">
         <v>41</v>
@@ -7613,18 +7557,18 @@
         <v>15.939785957336429</v>
       </c>
       <c r="I81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B82" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C82" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D82">
         <v>163</v>
@@ -7639,21 +7583,21 @@
         <v>14.97417998313904</v>
       </c>
       <c r="H82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B83" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C83" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D83">
         <v>182</v>
@@ -7668,21 +7612,21 @@
         <v>15.47136163711548</v>
       </c>
       <c r="H83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B84" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C84" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D84">
         <v>251</v>
@@ -7697,21 +7641,21 @@
         <v>16.239932537078861</v>
       </c>
       <c r="H84" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I84" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B85" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C85" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D85">
         <v>282</v>
@@ -7728,10 +7672,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B86" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C86" t="s">
         <v>41</v>
@@ -7749,18 +7693,18 @@
         <v>17.042260885238651</v>
       </c>
       <c r="I86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B87" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C87" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D87">
         <v>252</v>
@@ -7775,18 +7719,18 @@
         <v>20.122421264648441</v>
       </c>
       <c r="I87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B88" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C88" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D88">
         <v>183</v>
@@ -7801,18 +7745,18 @@
         <v>14.694376945495611</v>
       </c>
       <c r="H88" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I88" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B89" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C89" t="s">
         <v>41</v>
@@ -7830,15 +7774,15 @@
         <v>16.20173096656799</v>
       </c>
       <c r="I89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B90" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C90" t="s">
         <v>41</v>
@@ -7856,15 +7800,15 @@
         <v>17.545785665512081</v>
       </c>
       <c r="I90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B91" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C91" t="s">
         <v>41</v>
@@ -7882,18 +7826,18 @@
         <v>15.48954486846924</v>
       </c>
       <c r="I91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B92" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C92" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D92">
         <v>265</v>
@@ -7910,10 +7854,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B93" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C93" t="s">
         <v>41</v>
@@ -7931,18 +7875,18 @@
         <v>15.640079498291019</v>
       </c>
       <c r="I93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B94" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C94" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D94">
         <v>215</v>
@@ -7957,21 +7901,21 @@
         <v>15.593776226043699</v>
       </c>
       <c r="H94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B95" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C95" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D95">
         <v>152</v>
@@ -7986,21 +7930,21 @@
         <v>17.368678569793701</v>
       </c>
       <c r="H95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B96" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C96" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D96">
         <v>144</v>
@@ -8015,21 +7959,21 @@
         <v>14.322789192199711</v>
       </c>
       <c r="H96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B97" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C97" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D97">
         <v>138</v>
@@ -8046,13 +7990,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B98" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C98" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D98">
         <v>126</v>
@@ -8067,15 +8011,15 @@
         <v>14.40189003944397</v>
       </c>
       <c r="I98" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B99" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C99" t="s">
         <v>41</v>
@@ -8093,15 +8037,15 @@
         <v>15.005408525466921</v>
       </c>
       <c r="I99" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B100" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C100" t="s">
         <v>41</v>
@@ -8119,18 +8063,18 @@
         <v>15.556832313537599</v>
       </c>
       <c r="I100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B101" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C101" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D101">
         <v>142</v>
@@ -8160,8 +8104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC3E2E4-B7FD-42AD-A589-EF9F17517C2C}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G101" sqref="G82:G101"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8174,22 +8118,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8198,7 +8142,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -8213,18 +8157,18 @@
         <v>4299</v>
       </c>
       <c r="G2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C3" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D3">
         <v>4337</v>
@@ -8238,7 +8182,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -8256,7 +8200,7 @@
         <v>4308</v>
       </c>
       <c r="G4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8264,10 +8208,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C5" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D5">
         <v>4301</v>
@@ -8279,15 +8223,15 @@
         <v>4334</v>
       </c>
       <c r="G5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -8307,7 +8251,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -8322,7 +8266,7 @@
         <v>4304</v>
       </c>
       <c r="G7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -8330,10 +8274,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D8">
         <v>4345</v>
@@ -8345,7 +8289,7 @@
         <v>4477</v>
       </c>
       <c r="G8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -8353,10 +8297,10 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C9" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D9">
         <v>4326</v>
@@ -8368,7 +8312,7 @@
         <v>4344</v>
       </c>
       <c r="G9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -8376,10 +8320,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C10" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D10">
         <v>4314</v>
@@ -8391,7 +8335,7 @@
         <v>4373</v>
       </c>
       <c r="G10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -8399,7 +8343,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -8419,10 +8363,10 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C12" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D12">
         <v>4274</v>
@@ -8439,10 +8383,10 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C13" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D13">
         <v>4284</v>
@@ -8459,7 +8403,7 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -8479,7 +8423,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -8499,10 +8443,10 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C16" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D16">
         <v>4264</v>
@@ -8519,7 +8463,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -8539,7 +8483,7 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -8559,7 +8503,7 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -8576,7 +8520,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
@@ -8593,13 +8537,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>488</v>
+        <v>586</v>
       </c>
       <c r="B21" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C21" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D21">
         <v>4314</v>
@@ -8613,10 +8557,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -8633,13 +8577,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23">
         <v>4349</v>
@@ -8651,18 +8595,18 @@
         <v>4361</v>
       </c>
       <c r="G23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C24" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D24">
         <v>4621</v>
@@ -8674,18 +8618,18 @@
         <v>4655</v>
       </c>
       <c r="G24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C25" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D25">
         <v>4765</v>
@@ -8697,15 +8641,15 @@
         <v>4808</v>
       </c>
       <c r="G25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -8719,19 +8663,16 @@
       <c r="F26">
         <v>5074</v>
       </c>
-      <c r="G26" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C27" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="D27">
         <v>4543</v>
@@ -8745,13 +8686,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C28" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D28">
         <v>4302</v>
@@ -8763,18 +8704,18 @@
         <v>4344</v>
       </c>
       <c r="G28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D29">
         <v>4468</v>
@@ -8788,13 +8729,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C30" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D30">
         <v>5024</v>
@@ -8808,13 +8749,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C31" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D31">
         <v>4471</v>
@@ -8828,13 +8769,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
         <v>92</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
       </c>
       <c r="D32">
         <v>4407</v>
@@ -8848,13 +8789,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C33" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D33">
         <v>4386</v>
@@ -8866,15 +8807,15 @@
         <v>4412</v>
       </c>
       <c r="G33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -8891,13 +8832,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35">
         <v>4395</v>
@@ -8909,15 +8850,15 @@
         <v>4467</v>
       </c>
       <c r="G35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C36" t="s">
         <v>52</v>
@@ -8934,13 +8875,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C37" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D37">
         <v>4495</v>
@@ -8954,10 +8895,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -8974,13 +8915,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C39" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D39">
         <v>4363</v>
@@ -8992,18 +8933,18 @@
         <v>4381</v>
       </c>
       <c r="G39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40">
         <v>4674</v>
@@ -9017,10 +8958,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
@@ -9037,13 +8978,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C42" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D42">
         <v>4397</v>
@@ -9055,18 +8996,18 @@
         <v>4403</v>
       </c>
       <c r="G42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C43" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D43">
         <v>4385</v>
@@ -9078,15 +9019,15 @@
         <v>4406</v>
       </c>
       <c r="G43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C44" t="s">
         <v>52</v>
@@ -9103,13 +9044,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D45">
         <v>4937</v>
@@ -9123,13 +9064,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C46" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D46">
         <v>4408</v>
@@ -9141,15 +9082,15 @@
         <v>4467</v>
       </c>
       <c r="G46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C47" t="s">
         <v>41</v>
@@ -9166,7 +9107,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
         <v>38</v>
@@ -9183,10 +9124,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C49" t="s">
         <v>41</v>
@@ -9203,13 +9144,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C50" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D50">
         <v>4433</v>
@@ -9221,18 +9162,18 @@
         <v>4565</v>
       </c>
       <c r="G50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C51" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D51">
         <v>4536</v>
@@ -9244,15 +9185,15 @@
         <v>4567</v>
       </c>
       <c r="G51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C52" t="s">
         <v>41</v>
@@ -9269,10 +9210,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C53" t="s">
         <v>52</v>
@@ -9289,13 +9230,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D54">
         <v>4828</v>
@@ -9309,10 +9250,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C55" t="s">
         <v>41</v>
@@ -9329,13 +9270,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C56" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D56">
         <v>4725</v>
@@ -9347,18 +9288,18 @@
         <v>4766</v>
       </c>
       <c r="G56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C57" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D57">
         <v>4696</v>
@@ -9370,18 +9311,18 @@
         <v>4721</v>
       </c>
       <c r="G57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="C58" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D58">
         <v>4584</v>
@@ -9393,15 +9334,15 @@
         <v>4623</v>
       </c>
       <c r="G58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C59" t="s">
         <v>41</v>
@@ -9418,10 +9359,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C60" t="s">
         <v>41</v>
@@ -9438,10 +9379,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B61" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C61" t="s">
         <v>52</v>
@@ -9458,13 +9399,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="C62" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D62">
         <v>4404</v>
@@ -9476,15 +9417,15 @@
         <v>4410</v>
       </c>
       <c r="G62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C63" t="s">
         <v>41</v>
@@ -9501,10 +9442,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C64" t="s">
         <v>41</v>
@@ -9521,13 +9462,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C65" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D65">
         <v>4464</v>
@@ -9539,15 +9480,15 @@
         <v>4488</v>
       </c>
       <c r="G65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B66" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C66" t="s">
         <v>52</v>
@@ -9564,10 +9505,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B67" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C67" t="s">
         <v>41</v>
@@ -9584,13 +9525,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B68" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C68" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="D68">
         <v>4380</v>
@@ -9602,15 +9543,15 @@
         <v>4458</v>
       </c>
       <c r="G68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B69" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C69" t="s">
         <v>52</v>
@@ -9627,13 +9568,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C70" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D70">
         <v>4493</v>
@@ -9645,15 +9586,15 @@
         <v>4514</v>
       </c>
       <c r="G70" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C71" t="s">
         <v>52</v>
@@ -9670,13 +9611,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B72" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C72" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="D72">
         <v>4456</v>
@@ -9688,15 +9629,15 @@
         <v>4473</v>
       </c>
       <c r="G72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C73" t="s">
         <v>52</v>
@@ -9713,13 +9654,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B74" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C74" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D74">
         <v>4467</v>
@@ -9731,15 +9672,15 @@
         <v>4521</v>
       </c>
       <c r="G74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B75" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C75" t="s">
         <v>41</v>
@@ -9756,10 +9697,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B76" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C76" t="s">
         <v>52</v>
@@ -9776,10 +9717,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B77" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C77" t="s">
         <v>52</v>
@@ -9794,18 +9735,18 @@
         <v>4498</v>
       </c>
       <c r="G77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B78" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C78" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D78">
         <v>4576</v>
@@ -9817,18 +9758,18 @@
         <v>4670</v>
       </c>
       <c r="G78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B79" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C79" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D79">
         <v>4878</v>
@@ -9840,15 +9781,15 @@
         <v>4939</v>
       </c>
       <c r="G79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B80" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C80" t="s">
         <v>41</v>
@@ -9865,10 +9806,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B81" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C81" t="s">
         <v>52</v>
@@ -9885,13 +9826,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B82" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C82" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D82">
         <v>4494</v>
@@ -9903,18 +9844,18 @@
         <v>4599</v>
       </c>
       <c r="G82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B83" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C83" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D83">
         <v>4451</v>
@@ -9926,18 +9867,18 @@
         <v>4479</v>
       </c>
       <c r="G83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B84" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C84" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D84">
         <v>4453</v>
@@ -9949,18 +9890,18 @@
         <v>4481</v>
       </c>
       <c r="G84" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B85" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C85" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="D85">
         <v>4510</v>
@@ -9972,15 +9913,15 @@
         <v>4538</v>
       </c>
       <c r="G85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B86" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C86" t="s">
         <v>52</v>
@@ -9997,13 +9938,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B87" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C87" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D87">
         <v>4570</v>
@@ -10015,18 +9956,18 @@
         <v>4594</v>
       </c>
       <c r="G87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B88" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C88" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="D88">
         <v>4532</v>
@@ -10038,15 +9979,15 @@
         <v>4569</v>
       </c>
       <c r="G88" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B89" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C89" t="s">
         <v>52</v>
@@ -10063,10 +10004,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B90" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C90" t="s">
         <v>44</v>
@@ -10083,10 +10024,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B91" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C91" t="s">
         <v>41</v>
@@ -10103,10 +10044,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B92" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C92" t="s">
         <v>52</v>
@@ -10121,18 +10062,18 @@
         <v>4579</v>
       </c>
       <c r="G92" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B93" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C93" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D93">
         <v>4625</v>
@@ -10144,15 +10085,15 @@
         <v>4974</v>
       </c>
       <c r="G93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B94" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C94" t="s">
         <v>41</v>
@@ -10169,13 +10110,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B95" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D95">
         <v>4702</v>
@@ -10189,10 +10130,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B96" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C96" t="s">
         <v>44</v>
@@ -10207,18 +10148,18 @@
         <v>5187</v>
       </c>
       <c r="G96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B97" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D97">
         <v>4638</v>
@@ -10230,18 +10171,18 @@
         <v>4643</v>
       </c>
       <c r="G97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B98" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D98">
         <v>4659</v>
@@ -10255,13 +10196,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B99" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C99" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D99">
         <v>5036</v>
@@ -10275,13 +10216,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B100" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C100" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D100">
         <v>4738</v>
@@ -10293,15 +10234,15 @@
         <v>4786</v>
       </c>
       <c r="G100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B101" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C101" t="s">
         <v>41</v>
@@ -10319,7 +10260,7 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G102">
         <f>COUNTIF(G2:G101,"x")/100</f>
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
